--- a/bsb-fe/src/main/resources/template/Self_Assessment_Template.xlsx
+++ b/bsb-fe/src/main/resources/template/Self_Assessment_Template.xlsx
@@ -9,7 +9,6 @@
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="action">Sheet1!$D$2:$D$4</definedName>
@@ -19,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve">Section </t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,10 +49,6 @@
   </si>
   <si>
     <t>S/N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Answer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -581,49 +576,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="1" width="9.625" customWidth="1"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="25.25" customWidth="1"/>
-    <col min="5" max="5" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
-      <formula1>action</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>